--- a/examen/my_tweets2.xlsx
+++ b/examen/my_tweets2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\Desktop\BAG_2023_2024\examen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5169AD7-16D9-4721-A149-A27A364A2B93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55212EE1-1D61-4128-927D-2C3585DD9EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{55C62DDB-56EF-460C-8EB8-117604595F25}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>message to examine</t>
   </si>
@@ -129,6 +129,99 @@
   </si>
   <si>
     <t>"stop saying blur is never going to reunite ever again im literally neurodivergent and have suicidal tendencies"</t>
+  </si>
+  <si>
+    <t>"Flipping the switch at the iconic Empire State Building to the sounds of "Wrap Me Up" was a dream come true. A massive thank you to @iHeartRadioand @StateFarm for making this monumental New York moment possible."</t>
+  </si>
+  <si>
+    <t>"This show is so fun!!!! Thank you so much for watching. And thank you @Meghan_Trainor and @MrJonCryer for playing. Thank you @KekePalmerfor the hosting and the playing.  See you guys soon. #PASSWORD"</t>
+  </si>
+  <si>
+    <t>"Thank you to everyone who has been listening to and loves #WrapMeUp! Don’t blink or you’ll miss a sneak peek at a little something we have in store for you later this week…"</t>
+  </si>
+  <si>
+    <t>"I’m going  to bed - I got @DUALIPA tomorrow!!"</t>
+  </si>
+  <si>
+    <t>"Wow guess I’m really in the spirit this year #SpotifyWrapped"</t>
+  </si>
+  <si>
+    <t>"Guys number 2!!!!! OMG!!! We’re so close! We’re so close!!! #HappyThanksgiving #WrapMeUp"</t>
+  </si>
+  <si>
+    <t>"Okay - we are #6 now!!! I want to see if we can get Wrap Me Up to the top of the iTunes Holiday charts even just for one second. Wanna try? At 1pm eastern/10am pacific anyone who hasn’t downloaded it yet please do. I’ll update on the show tonight and it will give me something to…"</t>
+  </si>
+  <si>
+    <t>"If you look around at Thanksgiving and don’t know who the family weirdo is - it’s you. #WePost"</t>
+  </si>
+  <si>
+    <t>"Happy #WorldTelevisionDay. I’ve been practicing my monologue stance for a long time…"</t>
+  </si>
+  <si>
+    <t>"It's Hashtags time! This week, post some funny or weird stories about people in your family. Could be on the show! #MyFamilyIsWeird"</t>
+  </si>
+  <si>
+    <t>"Hey, cousins who suddenly have to take a walk for some “fresh air” on Thanksgiving, we know you’re just going to get stoned. #WePost"</t>
+  </si>
+  <si>
+    <t>"My mom one year only made food out of a Guy Fieri cookbook. Made us all dress like Guy Fieri. #WorstThanksgiving"</t>
+  </si>
+  <si>
+    <t>"Nothing is more confusing than finding a mannequin attractive. #WePost"</t>
+  </si>
+  <si>
+    <t>"Wanna have fun? Try whispering to your Uber Eats driver “There’s enough here for two…” and see what happens. #WePost"</t>
+  </si>
+  <si>
+    <t>"I found this cardigan under my bed. It’s my favorite!"</t>
+  </si>
+  <si>
+    <t>"We are baaaaaaaack!!! New show this Monday. McConaughey. Mayer. Me."</t>
+  </si>
+  <si>
+    <t>"Been practicing #LikeCrazy for a month and I think this is the best I’m gonna get. Thank you Army  &lt;Emoji: purple heart&gt; for the suggestion. I hope I made you proud. Check my TikTok for the full final update https://tiktok.com/t/ZT8YqyMDU/"</t>
+  </si>
+  <si>
+    <t>"Late night unite! Your new favorite podcast Strike Force Five premieres tomorrow with all of our proceeds going to staff and crew affected by the ongoing writers strike. Check it out on Spotify or wherever you get your podcasts."</t>
+  </si>
+  <si>
+    <t>"It’s VIRGO SEASON! Happy Birthday, @KekePalmer!"</t>
+  </si>
+  <si>
+    <t>"Jimmy James and Jimin. #LikeCrazy update. Check my TikTok for the full progress update! https://tiktok.com/t/ZT8NENar6/"</t>
+  </si>
+  <si>
+    <t>"It’s raining out but I got the essentials: Cheetos Shrimp Sticks and boat noodle flavored Lay’s."</t>
+  </si>
+  <si>
+    <t>"Huge thanks to @jonasbrothers for giving me the surprise guest spot on 'The Tour' tour. And thank you to @yankeestadium for turning it into the world’s biggest karaoke party. This is one of those nights I will ever forget."</t>
+  </si>
+  <si>
+    <t>"I’m so proud of everyone for collectively not choosing the Mega Millions lottery numbers 8, 24, 30, 45, 61 and 12. They are ridiculous numbers and we all know it. The best part is that we didn’t even have to ask each other - we just did it… together. And there is strength in…"</t>
+  </si>
+  <si>
+    <t>"Someone alert the Muffin Man: That’s My Jam got nominated for an Outstanding Game Show Emmy! Thank you to the entire team behind #ThatsMyJam! #Emmys2023 #Emmys"</t>
+  </si>
+  <si>
+    <t>"Hilarious and talented!!! Just wow!! @ReneeGoldsberry #ThatsMyJam."</t>
+  </si>
+  <si>
+    <t>"Let’s gooooo!! #ThatsMyJam begins now!! Who's making dip with me?"</t>
+  </si>
+  <si>
+    <t>"Haaaa!! Love it!!! #ThatsMyJam"</t>
+  </si>
+  <si>
+    <t>"You know what I’d wish for if I had a genie? Happy Birthday Paul Rudd and a Teenie Weenie Beanie."</t>
+  </si>
+  <si>
+    <t>"I don’t have time to cook a recipe that takes an hour, but I do have time to watch 3 hours of TikTok recipe videos. #WeTweet"</t>
+  </si>
+  <si>
+    <t>"My man. Crushed it @MrCraigRobinson . #ThatsMyJam"</t>
+  </si>
+  <si>
+    <t>"Yaaaaaaay!!!"</t>
   </si>
 </sst>
 </file>
@@ -171,9 +264,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -489,459 +581,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0557B6D-984E-4802-A799-561CA8BCD92C}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:A62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -950,6 +906,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001A22BC4D76770C428059E1FD34E33D28" ma:contentTypeVersion="4" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="fbc5b956d2de9d4a2a924ebb15913a97">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="df97910a-0287-433c-80af-3e736e9ba2a4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ff6b3b114b9ac79d6cc8919d2a76bef9" ns3:_="">
     <xsd:import namespace="df97910a-0287-433c-80af-3e736e9ba2a4"/>
@@ -1095,15 +1060,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1111,6 +1067,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3389CA-F76E-428C-948E-18DCD78AFBFA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{043337BD-7845-429E-A0DC-7DA94E06D833}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1124,14 +1088,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9D3389CA-F76E-428C-948E-18DCD78AFBFA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
